--- a/database/industries/darou/dalber/cost/yearly.xlsx
+++ b/database/industries/darou/dalber/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dalber\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dalber\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F8A891-0756-4B38-BB2D-706A8759D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1B6185-4D08-448A-B392-2D08577F598C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>مواد اولیه و لوازم بسته بندی</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>مقدار خرید طی دوره</t>
@@ -629,12 +626,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +641,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -656,7 +653,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -668,7 +665,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -678,7 +675,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -690,7 +687,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -702,7 +699,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -712,7 +709,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -734,7 +731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -744,95 +741,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1241745</v>
+        <v>2365222</v>
       </c>
       <c r="F10" s="9">
-        <v>2365222</v>
+        <v>3034759</v>
       </c>
       <c r="G10" s="9">
-        <v>3034759</v>
+        <v>3723801</v>
       </c>
       <c r="H10" s="9">
-        <v>3723801</v>
+        <v>6987559</v>
       </c>
       <c r="I10" s="9">
-        <v>6987559</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10034208</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>102714</v>
+        <v>134487</v>
       </c>
       <c r="F11" s="11">
-        <v>134487</v>
+        <v>216329</v>
       </c>
       <c r="G11" s="11">
-        <v>216329</v>
+        <v>278595</v>
       </c>
       <c r="H11" s="11">
-        <v>278595</v>
+        <v>419749</v>
       </c>
       <c r="I11" s="11">
-        <v>419749</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>787524</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>322116</v>
+        <v>439953</v>
       </c>
       <c r="F12" s="9">
-        <v>439953</v>
+        <v>623666</v>
       </c>
       <c r="G12" s="9">
-        <v>623666</v>
+        <v>761507</v>
       </c>
       <c r="H12" s="9">
-        <v>761507</v>
+        <v>1146488</v>
       </c>
       <c r="I12" s="9">
-        <v>1146488</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1919722</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1666575</v>
+        <v>2939662</v>
       </c>
       <c r="F13" s="13">
-        <v>2939662</v>
+        <v>3874754</v>
       </c>
       <c r="G13" s="13">
-        <v>3874754</v>
+        <v>4763903</v>
       </c>
       <c r="H13" s="13">
-        <v>4763903</v>
+        <v>8553796</v>
       </c>
       <c r="I13" s="13">
-        <v>8553796</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12741454</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -854,205 +851,205 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1666575</v>
+        <v>2939662</v>
       </c>
       <c r="F15" s="13">
-        <v>2939662</v>
+        <v>3874754</v>
       </c>
       <c r="G15" s="13">
-        <v>3874754</v>
+        <v>4763903</v>
       </c>
       <c r="H15" s="13">
-        <v>4763903</v>
+        <v>8553796</v>
       </c>
       <c r="I15" s="13">
-        <v>8553796</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12741454</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>64351</v>
+        <v>-216392</v>
       </c>
       <c r="F16" s="9">
-        <v>-216392</v>
+        <v>-159836</v>
       </c>
       <c r="G16" s="9">
-        <v>-159836</v>
+        <v>-159202</v>
       </c>
       <c r="H16" s="9">
-        <v>-159202</v>
+        <v>-399804</v>
       </c>
       <c r="I16" s="9">
-        <v>-399102</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>274897</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-1569</v>
+        <v>-910</v>
       </c>
       <c r="F17" s="11">
-        <v>-910</v>
+        <v>-1933</v>
       </c>
       <c r="G17" s="11">
-        <v>-1933</v>
+        <v>0</v>
       </c>
       <c r="H17" s="11">
-        <v>0</v>
+        <v>-14787</v>
       </c>
       <c r="I17" s="11">
-        <v>-14787</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4209</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1729357</v>
+        <v>2722360</v>
       </c>
       <c r="F18" s="15">
-        <v>2722360</v>
+        <v>3712985</v>
       </c>
       <c r="G18" s="15">
-        <v>3712985</v>
+        <v>4604701</v>
       </c>
       <c r="H18" s="15">
-        <v>4604701</v>
+        <v>8139205</v>
       </c>
       <c r="I18" s="15">
-        <v>8139907</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13012142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>92356</v>
+        <v>82920</v>
       </c>
       <c r="F19" s="11">
-        <v>82920</v>
+        <v>192416</v>
       </c>
       <c r="G19" s="11">
-        <v>192416</v>
+        <v>172943</v>
       </c>
       <c r="H19" s="11">
-        <v>172943</v>
+        <v>455542</v>
       </c>
       <c r="I19" s="11">
-        <v>455542</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>891538</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-82920</v>
+        <v>-192416</v>
       </c>
       <c r="F20" s="9">
-        <v>-192416</v>
+        <v>-172943</v>
       </c>
       <c r="G20" s="9">
-        <v>-172943</v>
+        <v>-455542</v>
       </c>
       <c r="H20" s="9">
-        <v>-455542</v>
+        <v>-891538</v>
       </c>
       <c r="I20" s="9">
-        <v>-892240</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-599382</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1738793</v>
+        <v>2612864</v>
       </c>
       <c r="F21" s="13">
-        <v>2612864</v>
+        <v>3732458</v>
       </c>
       <c r="G21" s="13">
-        <v>3732458</v>
+        <v>4322102</v>
       </c>
       <c r="H21" s="13">
-        <v>4322102</v>
+        <v>7703209</v>
       </c>
       <c r="I21" s="13">
-        <v>7703209</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13304298</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>44630</v>
+        <v>50871</v>
       </c>
       <c r="F22" s="9">
-        <v>50871</v>
+        <v>63446</v>
       </c>
       <c r="G22" s="9">
-        <v>63446</v>
+        <v>181635</v>
       </c>
       <c r="H22" s="9">
-        <v>181635</v>
+        <v>254005</v>
       </c>
       <c r="I22" s="9">
-        <v>254005</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>213833</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1783423</v>
+        <v>2663735</v>
       </c>
       <c r="F23" s="13">
-        <v>2663735</v>
+        <v>3795904</v>
       </c>
       <c r="G23" s="13">
-        <v>3795904</v>
+        <v>4503737</v>
       </c>
       <c r="H23" s="13">
-        <v>4503737</v>
+        <v>7957214</v>
       </c>
       <c r="I23" s="13">
-        <v>7957214</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13518131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1062,7 +1059,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1072,7 +1069,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1082,7 +1079,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1104,7 +1101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1114,51 +1111,51 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>25</v>
+      <c r="E29" s="9">
+        <v>115743758</v>
       </c>
       <c r="F29" s="9">
-        <v>115743758</v>
+        <v>185396796</v>
       </c>
       <c r="G29" s="9">
-        <v>185396796</v>
+        <v>173430425</v>
       </c>
       <c r="H29" s="9">
-        <v>173430425</v>
+        <v>235937731</v>
       </c>
       <c r="I29" s="9">
-        <v>235937731</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>235745856</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>0</v>
+        <v>115743758</v>
       </c>
       <c r="F30" s="13">
-        <v>115743758</v>
+        <v>185396796</v>
       </c>
       <c r="G30" s="13">
-        <v>185396796</v>
+        <v>173430425</v>
       </c>
       <c r="H30" s="13">
-        <v>173430425</v>
+        <v>235937731</v>
       </c>
       <c r="I30" s="13">
-        <v>235937731</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>235745856</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1168,7 +1165,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1178,7 +1175,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1188,9 +1185,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1210,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1220,51 +1217,51 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
-        <v>25</v>
+      <c r="E36" s="9">
+        <v>602974312</v>
       </c>
       <c r="F36" s="9">
-        <v>602974312</v>
+        <v>558594090</v>
       </c>
       <c r="G36" s="9">
-        <v>558594090</v>
+        <v>526507284</v>
       </c>
       <c r="H36" s="9">
-        <v>526507284</v>
+        <v>440999231</v>
       </c>
       <c r="I36" s="9">
-        <v>440999231</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>614097047</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>0</v>
+        <v>602974312</v>
       </c>
       <c r="F37" s="13">
-        <v>602974312</v>
+        <v>558594090</v>
       </c>
       <c r="G37" s="13">
-        <v>558594090</v>
+        <v>526507284</v>
       </c>
       <c r="H37" s="13">
-        <v>526507284</v>
+        <v>440999231</v>
       </c>
       <c r="I37" s="13">
-        <v>440999231</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>614097047</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1274,7 +1271,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1284,7 +1281,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1294,9 +1291,9 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1316,7 +1313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1326,51 +1323,51 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
-        <v>25</v>
+      <c r="E43" s="9">
+        <v>529416252</v>
       </c>
       <c r="F43" s="9">
-        <v>529416252</v>
+        <v>538453406</v>
       </c>
       <c r="G43" s="9">
-        <v>538453406</v>
+        <v>463999978</v>
       </c>
       <c r="H43" s="9">
-        <v>463999978</v>
+        <v>441191106</v>
       </c>
       <c r="I43" s="9">
-        <v>441191106</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>481575083</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>0</v>
+        <v>529416252</v>
       </c>
       <c r="F44" s="13">
-        <v>529416252</v>
+        <v>538453406</v>
       </c>
       <c r="G44" s="13">
-        <v>538453406</v>
+        <v>463999978</v>
       </c>
       <c r="H44" s="13">
-        <v>463999978</v>
+        <v>441191106</v>
       </c>
       <c r="I44" s="13">
-        <v>441191106</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>481575083</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1380,7 +1377,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1390,7 +1387,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1400,9 +1397,9 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1422,7 +1419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1432,51 +1429,51 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
-        <v>25</v>
+      <c r="E50" s="9">
+        <v>189301818</v>
       </c>
       <c r="F50" s="9">
-        <v>189301818</v>
+        <v>205537480</v>
       </c>
       <c r="G50" s="9">
-        <v>205537480</v>
+        <v>235937731</v>
       </c>
       <c r="H50" s="9">
-        <v>235937731</v>
+        <v>235745856</v>
       </c>
       <c r="I50" s="9">
-        <v>235745856</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>368267820</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>0</v>
+        <v>189301818</v>
       </c>
       <c r="F51" s="13">
-        <v>189301818</v>
+        <v>205537480</v>
       </c>
       <c r="G51" s="13">
-        <v>205537480</v>
+        <v>235937731</v>
       </c>
       <c r="H51" s="13">
-        <v>235937731</v>
+        <v>235745856</v>
       </c>
       <c r="I51" s="13">
-        <v>235745856</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>368267820</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1486,7 +1483,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1496,7 +1493,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1506,9 +1503,9 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1528,7 +1525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1538,53 +1535,53 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>25</v>
+      <c r="E57" s="9">
+        <v>419757</v>
       </c>
       <c r="F57" s="9">
-        <v>419757</v>
+        <v>1616722</v>
       </c>
       <c r="G57" s="9">
-        <v>1616722</v>
+        <v>1435393</v>
       </c>
       <c r="H57" s="9">
-        <v>1435393</v>
+        <v>2411659</v>
       </c>
       <c r="I57" s="9">
-        <v>2411659</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3113447</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>0</v>
+        <v>419757</v>
       </c>
       <c r="F58" s="13">
-        <v>419757</v>
+        <v>1616722</v>
       </c>
       <c r="G58" s="13">
-        <v>1616722</v>
+        <v>1435393</v>
       </c>
       <c r="H58" s="13">
-        <v>1435393</v>
+        <v>2411659</v>
       </c>
       <c r="I58" s="13">
-        <v>2411659</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3113447</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1594,7 +1591,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1604,7 +1601,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1614,9 +1611,9 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1636,7 +1633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1646,53 +1643,53 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>25</v>
+      <c r="E64" s="9">
+        <v>3577436</v>
       </c>
       <c r="F64" s="9">
-        <v>3577436</v>
+        <v>2859929</v>
       </c>
       <c r="G64" s="9">
-        <v>2859929</v>
+        <v>4700067</v>
       </c>
       <c r="H64" s="9">
-        <v>4700067</v>
+        <v>7689347</v>
       </c>
       <c r="I64" s="9">
-        <v>7689347</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11951340</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>0</v>
+        <v>3577436</v>
       </c>
       <c r="F65" s="13">
-        <v>3577436</v>
+        <v>2859929</v>
       </c>
       <c r="G65" s="13">
-        <v>2859929</v>
+        <v>4700067</v>
       </c>
       <c r="H65" s="13">
-        <v>4700067</v>
+        <v>7689347</v>
       </c>
       <c r="I65" s="13">
-        <v>7689347</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11951340</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1702,7 +1699,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1712,7 +1709,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1722,9 +1719,9 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1744,7 +1741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1754,53 +1751,53 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>25</v>
+      <c r="E71" s="9">
+        <v>2365222</v>
       </c>
       <c r="F71" s="9">
-        <v>2365222</v>
+        <v>3034759</v>
       </c>
       <c r="G71" s="9">
-        <v>3034759</v>
+        <v>3723801</v>
       </c>
       <c r="H71" s="9">
-        <v>3723801</v>
+        <v>6987559</v>
       </c>
       <c r="I71" s="9">
-        <v>6987559</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10034208</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>0</v>
+        <v>2365222</v>
       </c>
       <c r="F72" s="13">
-        <v>2365222</v>
+        <v>3034759</v>
       </c>
       <c r="G72" s="13">
-        <v>3034759</v>
+        <v>3723801</v>
       </c>
       <c r="H72" s="13">
-        <v>3723801</v>
+        <v>6987559</v>
       </c>
       <c r="I72" s="13">
-        <v>6987559</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10034208</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1810,7 +1807,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1820,7 +1817,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1830,9 +1827,9 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -1852,7 +1849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1862,53 +1859,53 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>25</v>
+      <c r="E78" s="9">
+        <v>1631971</v>
       </c>
       <c r="F78" s="9">
-        <v>1631971</v>
+        <v>1441892</v>
       </c>
       <c r="G78" s="9">
-        <v>1441892</v>
+        <v>2411659</v>
       </c>
       <c r="H78" s="9">
-        <v>2411659</v>
+        <v>3113447</v>
       </c>
       <c r="I78" s="9">
-        <v>3113447</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5030579</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>0</v>
+        <v>1631971</v>
       </c>
       <c r="F79" s="13">
-        <v>1631971</v>
+        <v>1441892</v>
       </c>
       <c r="G79" s="13">
-        <v>1441892</v>
+        <v>2411659</v>
       </c>
       <c r="H79" s="13">
-        <v>2411659</v>
+        <v>3113447</v>
       </c>
       <c r="I79" s="13">
-        <v>3113447</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5030579</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1918,7 +1915,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1928,7 +1925,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1938,9 +1935,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -1960,7 +1957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1970,31 +1967,31 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>25</v>
+      <c r="E85" s="9">
+        <v>3627</v>
       </c>
       <c r="F85" s="9">
-        <v>3627</v>
+        <v>8720</v>
       </c>
       <c r="G85" s="9">
-        <v>8720</v>
+        <v>8276</v>
       </c>
       <c r="H85" s="9">
-        <v>8276</v>
+        <v>10222</v>
       </c>
       <c r="I85" s="9">
-        <v>10222</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13207</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2004,7 +2001,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2014,7 +2011,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2024,9 +2021,9 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2046,7 +2043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2056,31 +2053,31 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>25</v>
+      <c r="E91" s="9">
+        <v>5933</v>
       </c>
       <c r="F91" s="9">
-        <v>5933</v>
+        <v>5120</v>
       </c>
       <c r="G91" s="9">
-        <v>5120</v>
+        <v>8927</v>
       </c>
       <c r="H91" s="9">
-        <v>8927</v>
+        <v>17436</v>
       </c>
       <c r="I91" s="9">
-        <v>17436</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19462</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2090,7 +2087,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2100,7 +2097,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2110,9 +2107,9 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2132,7 +2129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2142,31 +2139,31 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>25</v>
+      <c r="E97" s="9">
+        <v>4468</v>
       </c>
       <c r="F97" s="9">
-        <v>4468</v>
+        <v>5636</v>
       </c>
       <c r="G97" s="9">
-        <v>5636</v>
+        <v>8025</v>
       </c>
       <c r="H97" s="9">
-        <v>8025</v>
+        <v>15838</v>
       </c>
       <c r="I97" s="9">
-        <v>15838</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20836</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2176,7 +2173,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2186,7 +2183,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2196,9 +2193,9 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2218,7 +2215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2228,29 +2225,29 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>25</v>
+      <c r="E103" s="9">
+        <v>8621</v>
       </c>
       <c r="F103" s="9">
-        <v>8621</v>
+        <v>7015</v>
       </c>
       <c r="G103" s="9">
-        <v>7015</v>
+        <v>10222</v>
       </c>
       <c r="H103" s="9">
-        <v>10222</v>
+        <v>13207</v>
       </c>
       <c r="I103" s="9">
-        <v>13207</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13660</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2260,7 +2257,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2270,7 +2267,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2280,9 +2277,9 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2302,7 +2299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2312,14 +2309,14 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>4812</v>
+        <v>0</v>
       </c>
       <c r="F109" s="9">
         <v>0</v>
@@ -2334,9 +2331,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -2356,9 +2353,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -2378,9 +2375,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -2400,9 +2397,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -2410,87 +2407,87 @@
         <v>0</v>
       </c>
       <c r="F113" s="9">
-        <v>0</v>
+        <v>35536</v>
       </c>
       <c r="G113" s="9">
-        <v>35536</v>
+        <v>67096</v>
       </c>
       <c r="H113" s="9">
-        <v>67096</v>
+        <v>79774</v>
       </c>
       <c r="I113" s="9">
-        <v>29351</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>129316</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>10602</v>
+        <v>7551</v>
       </c>
       <c r="F114" s="11">
-        <v>7551</v>
+        <v>8100</v>
       </c>
       <c r="G114" s="11">
-        <v>8100</v>
+        <v>11318</v>
       </c>
       <c r="H114" s="11">
-        <v>11318</v>
+        <v>29322</v>
       </c>
       <c r="I114" s="11">
-        <v>29322</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62002</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>36816</v>
+        <v>42153</v>
       </c>
       <c r="F115" s="9">
-        <v>42153</v>
+        <v>60604</v>
       </c>
       <c r="G115" s="9">
-        <v>60604</v>
+        <v>102279</v>
       </c>
       <c r="H115" s="9">
-        <v>102279</v>
+        <v>164443</v>
       </c>
       <c r="I115" s="9">
-        <v>164443</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>271018</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>159577</v>
+        <v>201018</v>
       </c>
       <c r="F116" s="11">
-        <v>201018</v>
+        <v>281071</v>
       </c>
       <c r="G116" s="11">
-        <v>281071</v>
+        <v>367019</v>
       </c>
       <c r="H116" s="11">
-        <v>367019</v>
+        <v>568902</v>
       </c>
       <c r="I116" s="11">
-        <v>568902</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>935136</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -2510,48 +2507,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>110309</v>
+        <v>189231</v>
       </c>
       <c r="F118" s="11">
-        <v>189231</v>
+        <v>238355</v>
       </c>
       <c r="G118" s="11">
-        <v>238355</v>
+        <v>213795</v>
       </c>
       <c r="H118" s="11">
-        <v>213795</v>
+        <v>304047</v>
       </c>
       <c r="I118" s="11">
-        <v>354470</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>522250</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>322116</v>
+        <v>439953</v>
       </c>
       <c r="F119" s="15">
-        <v>439953</v>
+        <v>623666</v>
       </c>
       <c r="G119" s="15">
-        <v>623666</v>
+        <v>761507</v>
       </c>
       <c r="H119" s="15">
-        <v>761507</v>
+        <v>1146488</v>
       </c>
       <c r="I119" s="15">
-        <v>1146488</v>
+        <v>1919722</v>
       </c>
     </row>
   </sheetData>
